--- a/资产负债表/300027.xlsx
+++ b/资产负债表/300027.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>18361214792.96</v>
+        <v>10708070724.45</v>
       </c>
       <c r="P2" t="n">
-        <v>929373239.6799999</v>
+        <v>836167016.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2641281831.96</v>
+        <v>411613225.37</v>
       </c>
       <c r="R2" t="n">
-        <v>-37.5558970092</v>
+        <v>-70.789347124</v>
       </c>
       <c r="S2" t="n">
-        <v>1173353768.3</v>
+        <v>949697532.5700001</v>
       </c>
       <c r="T2" t="n">
-        <v>-29.5095030483</v>
+        <v>17.2104094041</v>
       </c>
       <c r="U2" t="n">
-        <v>1227197755.46</v>
+        <v>395258446.6</v>
       </c>
       <c r="V2" t="n">
-        <v>11.4390860527</v>
+        <v>-69.91376571329999</v>
       </c>
       <c r="W2" t="n">
-        <v>8852893214.139999</v>
+        <v>6141098938.44</v>
       </c>
       <c r="X2" t="n">
-        <v>925230420.55</v>
+        <v>1236802943.98</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.7820161774</v>
+        <v>89.80755761109999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1190971523.51</v>
+        <v>3109372.26</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.8877653166</v>
+        <v>-99.82194648310001</v>
       </c>
       <c r="AB2" t="n">
-        <v>9508321578.82</v>
+        <v>4566971786.01</v>
       </c>
       <c r="AC2" t="n">
-        <v>-9.893257466</v>
+        <v>-48.6060735496</v>
       </c>
       <c r="AD2" t="n">
-        <v>-8.898426908899999</v>
+        <v>-35.5852954015</v>
       </c>
       <c r="AE2" t="n">
-        <v>-7.8051832472</v>
+        <v>-20.6313254915</v>
       </c>
       <c r="AF2" t="n">
-        <v>102.7245160171</v>
+        <v>70.63586912</v>
       </c>
       <c r="AG2" t="n">
-        <v>48.2151824591</v>
+        <v>57.3501903048</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300027.xlsx
+++ b/资产负债表/300027.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>10708070724.45</v>
+        <v>18361214792.96</v>
       </c>
       <c r="P2" t="n">
-        <v>836167016.42</v>
+        <v>929373239.6799999</v>
       </c>
       <c r="Q2" t="n">
-        <v>411613225.37</v>
+        <v>2641281831.96</v>
       </c>
       <c r="R2" t="n">
-        <v>-70.789347124</v>
+        <v>-37.5558970092</v>
       </c>
       <c r="S2" t="n">
-        <v>949697532.5700001</v>
+        <v>1173353768.3</v>
       </c>
       <c r="T2" t="n">
-        <v>17.2104094041</v>
+        <v>-29.5095030483</v>
       </c>
       <c r="U2" t="n">
-        <v>395258446.6</v>
+        <v>1227197755.46</v>
       </c>
       <c r="V2" t="n">
-        <v>-69.91376571329999</v>
+        <v>11.4390860527</v>
       </c>
       <c r="W2" t="n">
-        <v>6141098938.44</v>
+        <v>8852893214.139999</v>
       </c>
       <c r="X2" t="n">
-        <v>1236802943.98</v>
+        <v>925230420.55</v>
       </c>
       <c r="Y2" t="n">
-        <v>89.80755761109999</v>
+        <v>28.7820161774</v>
       </c>
       <c r="Z2" t="n">
-        <v>3109372.26</v>
+        <v>1190971523.51</v>
       </c>
       <c r="AA2" t="n">
-        <v>-99.82194648310001</v>
+        <v>82.8877653166</v>
       </c>
       <c r="AB2" t="n">
-        <v>4566971786.01</v>
+        <v>9508321578.82</v>
       </c>
       <c r="AC2" t="n">
-        <v>-48.6060735496</v>
+        <v>-9.893257466</v>
       </c>
       <c r="AD2" t="n">
-        <v>-35.5852954015</v>
+        <v>-8.898426908899999</v>
       </c>
       <c r="AE2" t="n">
-        <v>-20.6313254915</v>
+        <v>-7.8051832472</v>
       </c>
       <c r="AF2" t="n">
-        <v>70.63586912</v>
+        <v>102.7245160171</v>
       </c>
       <c r="AG2" t="n">
-        <v>57.3501903048</v>
+        <v>48.2151824591</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
